--- a/Data/msre_flow_setup.xlsx
+++ b/Data/msre_flow_setup.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jonathon\projects\mothman\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\moosetools\projects\mothman\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{404E139A-34F8-4141-B2E2-DA1F46160F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F019C9-8FB6-4F45-93C8-AB2A07D50174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{553CB2C9-4EE1-4D00-87D2-592D4CC4367C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{553CB2C9-4EE1-4D00-87D2-592D4CC4367C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="8channel model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>Time</t>
   </si>
@@ -185,6 +185,42 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Channel Set</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Scalars</t>
+  </si>
+  <si>
+    <t>F_total</t>
+  </si>
+  <si>
+    <t>F*V</t>
+  </si>
+  <si>
+    <t>F*V_norm'd</t>
+  </si>
+  <si>
+    <t>Area m2</t>
+  </si>
+  <si>
+    <t>Density 900K</t>
+  </si>
+  <si>
+    <t>area full</t>
+  </si>
+  <si>
+    <t>Density kg/m3 900K</t>
+  </si>
+  <si>
+    <t>Mdot kg/s</t>
   </si>
 </sst>
 </file>
@@ -196,7 +232,7 @@
     <numFmt numFmtId="165" formatCode="0.000000000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +265,26 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF79FFD7"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFCA74C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -256,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +324,15 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D096EF0A-A8F7-4824-A408-62772B98A0D8}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,4 +1469,328 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DF1A60-BD23-43FA-8C61-A780C983F3DF}">
+  <dimension ref="A2:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4.1445591888752196</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1.13132731957521E-8</v>
+      </c>
+      <c r="E3" s="11" cm="1">
+        <f t="array" ref="E3:E10">D3:D10/B21</f>
+        <v>1.9056945196436689E-2</v>
+      </c>
+      <c r="F3">
+        <f>67*2.54/100</f>
+        <v>1.7018</v>
+      </c>
+      <c r="G3">
+        <f>$B$22</f>
+        <v>2.8758716236800002E-4</v>
+      </c>
+      <c r="H3">
+        <f>$B$24</f>
+        <v>2253.4300000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7.8013296890102204</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.7728540558819001E-8</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4.6708080735201989E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F10" si="0">67*2.54/100</f>
+        <v>1.7018</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G10" si="1">$B$22</f>
+        <v>2.8758716236800002E-4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H10" si="2">$B$24</f>
+        <v>2253.4300000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>7.9938866900744001</v>
+      </c>
+      <c r="C5">
+        <v>72</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5.8679342783278698E-8</v>
+      </c>
+      <c r="E5" s="11">
+        <v>9.884398619523696E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.7018</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2.8758716236800002E-4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>2253.4300000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>8.2612147279731403</v>
+      </c>
+      <c r="C6">
+        <v>176</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1.3340196610763899E-7</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.22471250479169344</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.7018</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.8758716236800002E-4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>2253.4300000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>8.5611534676762595</v>
+      </c>
+      <c r="C7">
+        <v>240</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1.4892733158460401E-7</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.25086462133036808</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.7018</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.8758716236800002E-4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>2253.4300000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>8.8340275917503899</v>
+      </c>
+      <c r="C8">
+        <v>280</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.24890632355603E-7</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.21037536132714471</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.7018</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2.8758716236800002E-4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>2253.4300000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>9.2099026961714205</v>
+      </c>
+      <c r="C9">
+        <v>332</v>
+      </c>
+      <c r="D9" s="10">
+        <v>8.0280353584149203E-8</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.13523038577183272</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.7018</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2.8758716236800002E-4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>2253.4300000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12.632149904758901</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>8.4347350007422497E-9</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1.4208114652085489E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.7018</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2.8758716236800002E-4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>2253.4300000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="10">
+        <f>SUM(D3:D10)</f>
+        <v>5.9365617517058723E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="13">
+        <v>2.8758716236800002E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <f>2715.13-0.513*B23</f>
+        <v>2253.4300000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/msre_flow_setup.xlsx
+++ b/Data/msre_flow_setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\moosetools\projects\mothman\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F019C9-8FB6-4F45-93C8-AB2A07D50174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CD5B69-E6E8-4D34-BADD-132B9C26939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{553CB2C9-4EE1-4D00-87D2-592D4CC4367C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Time</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Mdot kg/s</t>
+  </si>
+  <si>
+    <t>SUM</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
     <numFmt numFmtId="165" formatCode="0.000000000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +278,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFDEDEE3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF79FFD7"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -312,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -324,13 +333,14 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1476,7 +1486,7 @@
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,31 +1499,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1527,10 +1537,10 @@
       <c r="C3">
         <v>16</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>1.13132731957521E-8</v>
       </c>
-      <c r="E3" s="11" cm="1">
+      <c r="E3" s="12" cm="1">
         <f t="array" ref="E3:E10">D3:D10/B21</f>
         <v>1.9056945196436689E-2</v>
       </c>
@@ -1557,10 +1567,10 @@
       <c r="C4">
         <v>36</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>2.7728540558819001E-8</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="12">
         <v>4.6708080735201989E-2</v>
       </c>
       <c r="F4">
@@ -1586,10 +1596,10 @@
       <c r="C5">
         <v>72</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>5.8679342783278698E-8</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>9.884398619523696E-2</v>
       </c>
       <c r="F5">
@@ -1615,10 +1625,10 @@
       <c r="C6">
         <v>176</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>1.3340196610763899E-7</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <v>0.22471250479169344</v>
       </c>
       <c r="F6">
@@ -1644,10 +1654,10 @@
       <c r="C7">
         <v>240</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>1.4892733158460401E-7</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="12">
         <v>0.25086462133036808</v>
       </c>
       <c r="F7">
@@ -1673,10 +1683,10 @@
       <c r="C8">
         <v>280</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>1.24890632355603E-7</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <v>0.21037536132714471</v>
       </c>
       <c r="F8">
@@ -1702,10 +1712,10 @@
       <c r="C9">
         <v>332</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>8.0280353584149203E-8</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="12">
         <v>0.13523038577183272</v>
       </c>
       <c r="F9">
@@ -1731,10 +1741,10 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>8.4347350007422497E-9</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="12">
         <v>1.4208114652085489E-2</v>
       </c>
       <c r="F10">
@@ -1750,29 +1760,42 @@
         <v>2253.4300000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="11">
         <f>SUM(D3:D10)</f>
         <v>5.9365617517058723E-7</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>2.8758716236800002E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1780,7 +1803,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1788,6 +1811,7 @@
         <f>2715.13-0.513*B23</f>
         <v>2253.4300000000003</v>
       </c>
+      <c r="E24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/msre_flow_setup.xlsx
+++ b/Data/msre_flow_setup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\moosetools\projects\mothman\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jonathon\projects\mothman\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CD5B69-E6E8-4D34-BADD-132B9C26939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56283555-4181-4D9B-BC5F-23EC613B64A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{553CB2C9-4EE1-4D00-87D2-592D4CC4367C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{553CB2C9-4EE1-4D00-87D2-592D4CC4367C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>Time</t>
   </si>
@@ -224,6 +224,51 @@
   </si>
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>DOWNCOMER</t>
+  </si>
+  <si>
+    <t>FINAL INPUTS</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>tau (input)</t>
+  </si>
+  <si>
+    <t>area (full flow)</t>
+  </si>
+  <si>
+    <t>DESIRED TAU</t>
+  </si>
+  <si>
+    <t>FULL FLOW STUFF</t>
+  </si>
+  <si>
+    <t>SINGLE CHANNEL STUFFS</t>
+  </si>
+  <si>
+    <t>area_full</t>
+  </si>
+  <si>
+    <t>V_ch</t>
+  </si>
+  <si>
+    <t>mdot_ratio</t>
+  </si>
+  <si>
+    <t>new mdot</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>new m3/s</t>
   </si>
 </sst>
 </file>
@@ -235,7 +280,7 @@
     <numFmt numFmtId="165" formatCode="0.000000000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,8 +339,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +365,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -317,11 +386,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,11 +524,48 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D096EF0A-A8F7-4824-A408-62772B98A0D8}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,6 +917,7 @@
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
     <col min="13" max="13" width="18.140625" customWidth="1"/>
     <col min="14" max="14" width="17.28515625" customWidth="1"/>
   </cols>
@@ -717,7 +941,9 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
@@ -741,7 +967,7 @@
       </c>
       <c r="E2" s="1">
         <f>B10</f>
-        <v>2.6785714285714284</v>
+        <v>2.8481012658227849</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -755,8 +981,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="3">
-        <f>H2+H3+H4</f>
-        <v>11.47857142857143</v>
+        <v>5.4569999999999999</v>
       </c>
       <c r="L2" s="1">
         <f>1</f>
@@ -764,11 +989,11 @@
       </c>
       <c r="M2" s="1" cm="1">
         <f t="array" ref="M2:M6">K2:K6/L2:L6*B5</f>
-        <v>0.85576210488011606</v>
+        <v>0.38261938467136758</v>
       </c>
       <c r="N2" s="4" cm="1">
         <f t="array" ref="N2:N6">_xlfn.ANCHORARRAY(M2)*B6/B4</f>
-        <v>6.1177747249431178E-4</v>
+        <v>2.9084365490740776E-4</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -785,7 +1010,7 @@
       </c>
       <c r="E3" s="1">
         <f>B14</f>
-        <v>9.1724999999999994</v>
+        <v>9.7530379746835436</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -799,16 +1024,16 @@
         <v>17</v>
       </c>
       <c r="K3" s="3">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>0.14910602947506688</v>
+        <v>0.27344980762659588</v>
       </c>
       <c r="N3" s="4">
-        <v>1.0659470584841772E-4</v>
+        <v>2.0785967640441457E-4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -816,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="5">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -824,7 +1049,7 @@
       </c>
       <c r="E4" s="1">
         <f>B18</f>
-        <v>2.8273809523809526</v>
+        <v>3.0063291139240507</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -832,23 +1057,23 @@
       </c>
       <c r="H4" s="3">
         <f>B10</f>
-        <v>2.6785714285714284</v>
+        <v>2.8481012658227849</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="3">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>0.14910602947506688</v>
+        <v>0.26643827409770876</v>
       </c>
       <c r="N4" s="4">
-        <v>1.0659470584841772E-4</v>
+        <v>2.0252994111199366E-4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -857,7 +1082,7 @@
       </c>
       <c r="B5" s="1">
         <f>B4/B3</f>
-        <v>7.4553014737533438E-2</v>
+        <v>7.0115335288870734E-2</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -865,7 +1090,7 @@
       </c>
       <c r="E5" s="1">
         <f>B22</f>
-        <v>4.0476190476190474</v>
+        <v>4.3037974683544302</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -887,7 +1112,7 @@
         <v>1.7018</v>
       </c>
       <c r="M5" s="1">
-        <v>0.36798996579814364</v>
+        <v>0.34608580116730175</v>
       </c>
       <c r="N5" s="4">
         <v>2.6307307824853358E-4</v>
@@ -906,7 +1131,7 @@
       </c>
       <c r="E6" s="1">
         <f>B26</f>
-        <v>2.2380952380952381</v>
+        <v>2.3797468354430378</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
@@ -914,24 +1139,23 @@
       </c>
       <c r="H6" s="3">
         <f>B18</f>
-        <v>2.8273809523809526</v>
+        <v>3.0063291139240507</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="3">
-        <f>H5</f>
+      <c r="K6" s="15">
         <v>1.3</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>9.6918919158793471E-2</v>
+        <v>9.1149935875531954E-2</v>
       </c>
       <c r="N6" s="4">
-        <v>6.9286558801471526E-5</v>
+        <v>6.9286558801471513E-5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -951,7 +1175,7 @@
       </c>
       <c r="H7" s="3">
         <f>B26</f>
-        <v>2.2380952380952381</v>
+        <v>2.3797468354430378</v>
       </c>
       <c r="I7" s="1"/>
       <c r="L7" s="1"/>
@@ -975,7 +1199,7 @@
       </c>
       <c r="K8" s="3">
         <f>K2+K3+K4+K6</f>
-        <v>16.778571428571428</v>
+        <v>14.457000000000001</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -994,7 +1218,7 @@
       </c>
       <c r="E9" s="1">
         <f>SUM(E2:E8)</f>
-        <v>20.964166666666667</v>
+        <v>22.291012658227842</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1017,7 +1241,7 @@
       </c>
       <c r="B10" s="1">
         <f>B9/B4</f>
-        <v>2.6785714285714284</v>
+        <v>2.8481012658227849</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -1025,7 +1249,7 @@
       </c>
       <c r="E10" s="1">
         <f>E3</f>
-        <v>9.1724999999999994</v>
+        <v>9.7530379746835436</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1046,7 +1270,7 @@
       </c>
       <c r="E11" s="1">
         <f>E6+E5+E4+E2</f>
-        <v>11.791666666666666</v>
+        <v>12.537974683544302</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1057,7 +1281,7 @@
       </c>
       <c r="K11" s="3">
         <f>K9+K8</f>
-        <v>25.178571428571431</v>
+        <v>22.856999999999999</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1108,7 +1332,7 @@
       </c>
       <c r="B14" s="1">
         <f>B13/B4</f>
-        <v>9.1724999999999994</v>
+        <v>9.7530379746835436</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1125,7 +1349,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1141,7 +1365,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1153,13 +1377,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="J16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1174,9 +1400,15 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="J17" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
@@ -1186,7 +1418,7 @@
       </c>
       <c r="B18" s="1">
         <f>B17/B4</f>
-        <v>2.8273809523809526</v>
+        <v>3.0063291139240507</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1198,9 +1430,17 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="J18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="24">
+        <f>K23-SUM(K19:K22)</f>
+        <v>6</v>
+      </c>
+      <c r="L18" s="25" cm="1">
+        <f t="array" ref="L18:L22">K2:K6/L2:L6*B5</f>
+        <v>0.38261938467136758</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
@@ -1214,9 +1454,15 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="J19" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="27">
+        <v>3.9</v>
+      </c>
+      <c r="L19" s="28">
+        <v>0.27344980762659588</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
@@ -1232,9 +1478,15 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="J20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="27">
+        <v>3.9</v>
+      </c>
+      <c r="L20" s="28">
+        <v>0.26643827409770876</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
@@ -1252,9 +1504,15 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="J21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="29">
+        <v>8.4</v>
+      </c>
+      <c r="L21" s="28">
+        <v>0.34608580116730175</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
@@ -1264,28 +1522,28 @@
       </c>
       <c r="B22" s="1">
         <f>B21/B4</f>
-        <v>4.0476190476190474</v>
+        <v>4.3037974683544302</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.7569999999999999</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="L22" s="28">
+        <v>9.1149935875531954E-2</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1295,9 +1553,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="J23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="31">
+        <v>23.5</v>
+      </c>
+      <c r="L23" s="32"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
@@ -1313,8 +1575,6 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1334,7 +1594,9 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1346,7 +1608,7 @@
       </c>
       <c r="B26" s="1">
         <f>B25/B4</f>
-        <v>2.2380952380952381</v>
+        <v>2.3797468354430378</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1355,8 +1617,12 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="J26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="39">
+        <v>2.8758716236800002E-4</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1371,8 +1637,13 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="1">
+        <f>67*2.54/100</f>
+        <v>1.7018</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1389,8 +1660,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="1">
+        <f>K27*K26</f>
+        <v>4.8941583291786238E-4</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1409,8 +1685,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="1">
+        <f>K28/B5</f>
+        <v>6.9801539264056885E-3</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1427,8 +1708,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="1">
+        <f>K29/K21</f>
+        <v>8.309707055244867E-4</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1445,13 +1731,18 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="16">
+        <f>K30*B4</f>
+        <v>0.1312933714728689</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -1463,19 +1754,97 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32">
+        <f>K31/B3</f>
+        <v>5.8263789633078855E-5</v>
+      </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="8"/>
+      <c r="J33" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J34" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="33" cm="1">
+        <f t="array" ref="K34:K38">K18:K22</f>
+        <v>6</v>
+      </c>
+      <c r="L34" s="40" cm="1">
+        <f t="array" ref="L34:L38">K2:K6/L2:L6*K32</f>
+        <v>3.1794550002771133E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J35" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="33">
+        <v>3.9</v>
+      </c>
+      <c r="L35" s="40">
+        <v>2.2722877956900752E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="33">
+        <v>3.9</v>
+      </c>
+      <c r="L36" s="40">
+        <v>2.2140240060569965E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J37" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="33">
+        <v>8.4</v>
+      </c>
+      <c r="L37" s="41">
+        <v>2.8758716236799997E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J38" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="L38" s="40">
+        <v>7.574292652300252E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="34"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J16:L16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1483,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DF1A60-BD23-43FA-8C61-A780C983F3DF}">
-  <dimension ref="A2:I24"/>
+  <dimension ref="A2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,38 +1865,40 @@
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1540,7 +1911,7 @@
       <c r="D3" s="11">
         <v>1.13132731957521E-8</v>
       </c>
-      <c r="E3" s="12" cm="1">
+      <c r="E3" cm="1">
         <f t="array" ref="E3:E10">D3:D10/B21</f>
         <v>1.9056945196436689E-2</v>
       </c>
@@ -1557,7 +1928,7 @@
         <v>2253.4300000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1570,7 +1941,7 @@
       <c r="D4" s="11">
         <v>2.7728540558819001E-8</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4">
         <v>4.6708080735201989E-2</v>
       </c>
       <c r="F4">
@@ -1586,7 +1957,7 @@
         <v>2253.4300000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1599,7 +1970,7 @@
       <c r="D5" s="11">
         <v>5.8679342783278698E-8</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5">
         <v>9.884398619523696E-2</v>
       </c>
       <c r="F5">
@@ -1615,7 +1986,7 @@
         <v>2253.4300000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1628,7 +1999,7 @@
       <c r="D6" s="11">
         <v>1.3340196610763899E-7</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6">
         <v>0.22471250479169344</v>
       </c>
       <c r="F6">
@@ -1644,7 +2015,7 @@
         <v>2253.4300000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1657,7 +2028,7 @@
       <c r="D7" s="11">
         <v>1.4892733158460401E-7</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7">
         <v>0.25086462133036808</v>
       </c>
       <c r="F7">
@@ -1673,7 +2044,7 @@
         <v>2253.4300000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1686,7 +2057,7 @@
       <c r="D8" s="11">
         <v>1.24890632355603E-7</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8">
         <v>0.21037536132714471</v>
       </c>
       <c r="F8">
@@ -1702,7 +2073,7 @@
         <v>2253.4300000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1715,7 +2086,7 @@
       <c r="D9" s="11">
         <v>8.0280353584149203E-8</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9">
         <v>0.13523038577183272</v>
       </c>
       <c r="F9">
@@ -1731,7 +2102,7 @@
         <v>2253.4300000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1744,7 +2115,7 @@
       <c r="D10" s="11">
         <v>8.4347350007422497E-9</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10">
         <v>1.4208114652085489E-2</v>
       </c>
       <c r="F10">
@@ -1760,20 +2131,30 @@
         <v>2253.4300000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1782,28 +2163,33 @@
         <v>5.9365617517058723E-7</v>
       </c>
       <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>2.8758716236800002E-4</v>
       </c>
       <c r="D22" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23">
         <v>900</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="11"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1812,6 +2198,21 @@
         <v>2253.4300000000003</v>
       </c>
       <c r="E24" s="10"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="11"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H28" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
